--- a/data/trans_orig/P22_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4337</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13476</v>
+        <v>13106</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004215655250947422</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001010280913940474</v>
+        <v>0.001012955750950524</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01309759039554046</v>
+        <v>0.01273857667215622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5140</v>
+        <v>4666</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.000708322491774419</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.003910966246549082</v>
+        <v>0.003550042402638645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         <v>1653</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12865</v>
+        <v>13886</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00224839953184919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007055771946291526</v>
+        <v>0.000705382961896118</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00549048465559513</v>
+        <v>0.005926204395703807</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>37995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27606</v>
+        <v>25511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51860</v>
+        <v>52042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03692818350545404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02683118503916808</v>
+        <v>0.02479490647532067</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05040414353845468</v>
+        <v>0.0505813686711787</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -836,19 +836,19 @@
         <v>27180</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18523</v>
+        <v>18110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38223</v>
+        <v>38883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02068066377679068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01409417486977126</v>
+        <v>0.01377920025846353</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02908333125661981</v>
+        <v>0.02958518469519157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -857,19 +857,19 @@
         <v>65175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49731</v>
+        <v>49949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81706</v>
+        <v>82971</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02781498316146645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02122395223534289</v>
+        <v>0.02131690814526315</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03487041180127735</v>
+        <v>0.03541027927185428</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>15894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9364</v>
+        <v>9392</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25003</v>
+        <v>25362</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01544753378757927</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00910076751764833</v>
+        <v>0.009128090306905316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02430085431201376</v>
+        <v>0.02464997833550767</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -907,19 +907,19 @@
         <v>38133</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26475</v>
+        <v>27236</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50969</v>
+        <v>52941</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02901463998320618</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0201443561837125</v>
+        <v>0.02072317958722585</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03878126409909165</v>
+        <v>0.04028181274581993</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -928,19 +928,19 @@
         <v>54027</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40014</v>
+        <v>41739</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67954</v>
+        <v>69644</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02305729570285684</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01707706346503787</v>
+        <v>0.01781320282115468</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02900107500995534</v>
+        <v>0.02972233993892842</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>970654</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>953040</v>
+        <v>953778</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>984811</v>
+        <v>985759</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9434086274560193</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9262884195707567</v>
+        <v>0.9270057095201744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.957167669732734</v>
+        <v>0.9580890454283911</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1225</v>
@@ -978,19 +978,19 @@
         <v>1248021</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1231231</v>
+        <v>1230464</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1262460</v>
+        <v>1263643</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9495963737482287</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9368211403382221</v>
+        <v>0.9362372948239781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9605828873549388</v>
+        <v>0.9614830315558431</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2203</v>
@@ -999,19 +999,19 @@
         <v>2218676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2196974</v>
+        <v>2197067</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2240301</v>
+        <v>2240349</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9468793216038275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9376174578875074</v>
+        <v>0.9376570914032452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9561084837772025</v>
+        <v>0.956128981432608</v>
       </c>
     </row>
     <row r="8">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9169</v>
+        <v>9861</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001042794167866869</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005426093186142782</v>
+        <v>0.005835468098576349</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5869</v>
+        <v>5617</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0006680974223505913</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.003699187837931759</v>
+        <v>0.003540356264830123</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11375</v>
+        <v>9882</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0008613558271378933</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003471747735661399</v>
+        <v>0.003016266778229065</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>102559</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83017</v>
+        <v>84950</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125245</v>
+        <v>123374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06069141589021237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04912693774830363</v>
+        <v>0.05027053991677431</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07411619042083124</v>
+        <v>0.07300907805405196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -1195,19 +1195,19 @@
         <v>84106</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68073</v>
+        <v>65787</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105389</v>
+        <v>102642</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0530136085611824</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04290785844293574</v>
+        <v>0.04146710335546989</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06642876317605276</v>
+        <v>0.06469755446349004</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -1216,19 +1216,19 @@
         <v>186665</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>164270</v>
+        <v>158275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>216245</v>
+        <v>214420</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05697361305662611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05013819923520089</v>
+        <v>0.04830843346280374</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06600191738541689</v>
+        <v>0.06544511696470828</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>48143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35175</v>
+        <v>37031</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63370</v>
+        <v>65979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02848964294115428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02081562197548885</v>
+        <v>0.02191358216707277</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03750014411650991</v>
+        <v>0.03904449523833152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -1266,19 +1266,19 @@
         <v>60710</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46703</v>
+        <v>45805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77655</v>
+        <v>77015</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03826688163665616</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02943795689516347</v>
+        <v>0.02887209058428392</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04894779534757059</v>
+        <v>0.04854442002541095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -1287,19 +1287,19 @@
         <v>108853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>90144</v>
+        <v>88564</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>131004</v>
+        <v>129704</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03322404746174526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02751357808562513</v>
+        <v>0.02703149126181146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03998490192747477</v>
+        <v>0.03958820758588738</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>1537382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1511878</v>
+        <v>1511730</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1561295</v>
+        <v>1558544</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9097761470007665</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8946831846873905</v>
+        <v>0.8945959599875778</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9239267008526568</v>
+        <v>0.9222986205537358</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1412</v>
@@ -1337,19 +1337,19 @@
         <v>1440617</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1415628</v>
+        <v>1416677</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1462997</v>
+        <v>1464238</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9080514123798109</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8923002194057322</v>
+        <v>0.8929614377330681</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.922157580208123</v>
+        <v>0.922940003534193</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2912</v>
@@ -1358,19 +1358,19 @@
         <v>2978000</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2941231</v>
+        <v>2944558</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3007158</v>
+        <v>3010241</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9089409836544907</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8977185265648504</v>
+        <v>0.898733961762992</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9178406178784532</v>
+        <v>0.9187817439623602</v>
       </c>
     </row>
     <row r="13">
@@ -1509,19 +1509,19 @@
         <v>75072</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>60183</v>
+        <v>60808</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>92871</v>
+        <v>91916</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1361455537129772</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1091435490778599</v>
+        <v>0.1102782469397971</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1684243143249568</v>
+        <v>0.1666939172200433</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>60</v>
@@ -1530,19 +1530,19 @@
         <v>64277</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>50133</v>
+        <v>49485</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>80732</v>
+        <v>81227</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.134918851749144</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1052308027575408</v>
+        <v>0.1038695096693708</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1694576429204447</v>
+        <v>0.170497568939517</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>134</v>
@@ -1551,19 +1551,19 @@
         <v>139349</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>118450</v>
+        <v>119202</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>163819</v>
+        <v>163131</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.135576956747108</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1152437228664403</v>
+        <v>0.1159759949512339</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1593852983270131</v>
+        <v>0.1587158515831347</v>
       </c>
     </row>
     <row r="16">
@@ -1580,19 +1580,19 @@
         <v>66731</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52447</v>
+        <v>52844</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83968</v>
+        <v>84275</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1210189961527581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09511516528213267</v>
+        <v>0.09583491846501331</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1522795371995095</v>
+        <v>0.1528357517292669</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1601,19 +1601,19 @@
         <v>47267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36148</v>
+        <v>35085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61260</v>
+        <v>61952</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09921471985039862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07587472245251782</v>
+        <v>0.07364413914062333</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1285858511117245</v>
+        <v>0.1300386980182342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -1622,19 +1622,19 @@
         <v>113998</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93590</v>
+        <v>96014</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>134598</v>
+        <v>135629</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1109123478273938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09105685017513061</v>
+        <v>0.09341473558852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1309547532040093</v>
+        <v>0.1319581361691302</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>409605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>387950</v>
+        <v>386948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428921</v>
+        <v>426676</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7428354501342647</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7035626070631037</v>
+        <v>0.7017458933963332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7778648190905405</v>
+        <v>0.7737937952980501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>347</v>
@@ -1672,19 +1672,19 @@
         <v>364868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>346336</v>
+        <v>342994</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>381776</v>
+        <v>381944</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7658664284004574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7269676174401627</v>
+        <v>0.7199525420191836</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8013576185277298</v>
+        <v>0.8017098351471107</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>735</v>
@@ -1693,19 +1693,19 @@
         <v>774473</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>748351</v>
+        <v>747696</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>801875</v>
+        <v>801071</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7535106954254982</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7280956065161501</v>
+        <v>0.7274581704535069</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7801708772211445</v>
+        <v>0.7793881579916875</v>
       </c>
     </row>
     <row r="18">
@@ -1797,19 +1797,19 @@
         <v>6100</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001865233617310533</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0005895041009453678</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1839,19 +1839,19 @@
         <v>8090</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001217097974012659</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
     </row>
     <row r="20">
@@ -1868,19 +1868,19 @@
         <v>215626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>187265</v>
+        <v>189421</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243840</v>
+        <v>244491</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0659378354222936</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0572652960795984</v>
+        <v>0.05792459388754227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07456558338251881</v>
+        <v>0.07476471847284798</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>170</v>
@@ -1889,19 +1889,19 @@
         <v>175563</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>150550</v>
+        <v>151122</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>206312</v>
+        <v>205800</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05198509762536468</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0445786863457087</v>
+        <v>0.0447481572945548</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06109015424158237</v>
+        <v>0.06093849432239743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>379</v>
@@ -1910,19 +1910,19 @@
         <v>391188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>353197</v>
+        <v>355706</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>431929</v>
+        <v>433862</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05884913317642463</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05313381621879094</v>
+        <v>0.05351136389692574</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06497812125735823</v>
+        <v>0.06526888824248757</v>
       </c>
     </row>
     <row r="21">
@@ -1939,19 +1939,19 @@
         <v>130768</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03998845209454274</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>139</v>
@@ -1960,19 +1960,19 @@
         <v>146110</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04326407202593066</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>268</v>
@@ -1981,19 +1981,19 @@
         <v>276878</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04165263404235757</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
     </row>
     <row r="22">
@@ -2010,19 +2010,19 @@
         <v>2917642</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2879798</v>
+        <v>2880655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2953406</v>
+        <v>2951954</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8922084788658531</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.880635763183515</v>
+        <v>0.8808977508968203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9031451275137928</v>
+        <v>0.902701007485365</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2984</v>
@@ -2031,19 +2031,19 @@
         <v>3053507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3016292</v>
+        <v>3019218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3085698</v>
+        <v>3086992</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9041613262477592</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8931418905883693</v>
+        <v>0.894008427077558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9136934775182509</v>
+        <v>0.9140765587839939</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5850</v>
@@ -2052,19 +2052,19 @@
         <v>5971148</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5916570</v>
+        <v>5920057</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6017620</v>
+        <v>6022116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8982811348072052</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8900706284595722</v>
+        <v>0.8905951537277289</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9052722087049012</v>
+        <v>0.9059486196889498</v>
       </c>
     </row>
     <row r="23">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6627</v>
+        <v>6353</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001301168292321042</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006799233365675893</v>
+        <v>0.006517823879848151</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6348</v>
+        <v>7016</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0005484141532804185</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002745295683415188</v>
+        <v>0.003034116811888872</v>
       </c>
     </row>
     <row r="5">
@@ -2458,19 +2458,19 @@
         <v>7769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3681</v>
+        <v>3785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14856</v>
+        <v>15454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007971418787016229</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003776260742105071</v>
+        <v>0.003883101236631021</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01524275165167664</v>
+        <v>0.01585613687670887</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -2479,19 +2479,19 @@
         <v>23718</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15033</v>
+        <v>14835</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36373</v>
+        <v>35611</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01772913726559858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01123725926265845</v>
+        <v>0.01108944978648673</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02718881896027793</v>
+        <v>0.02661920163209648</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -2500,19 +2500,19 @@
         <v>31487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20797</v>
+        <v>21524</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44711</v>
+        <v>45358</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01361647101868692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008993658042538674</v>
+        <v>0.00930787020360679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01933505922661553</v>
+        <v>0.01961484162334504</v>
       </c>
     </row>
     <row r="6">
@@ -2529,19 +2529,19 @@
         <v>13816</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7235</v>
+        <v>6969</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23607</v>
+        <v>22739</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01417577716136021</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007423567865377416</v>
+        <v>0.007150063383316865</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02422109455440038</v>
+        <v>0.02333034123491774</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -2550,19 +2550,19 @@
         <v>20020</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12089</v>
+        <v>11921</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31952</v>
+        <v>31510</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01496512283066578</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00903651912912019</v>
+        <v>0.00891109596590919</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02388427380403327</v>
+        <v>0.02355362435776525</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -2571,19 +2571,19 @@
         <v>33837</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23052</v>
+        <v>23603</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48356</v>
+        <v>48939</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01463243078811255</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009968790617507313</v>
+        <v>0.01020698402523708</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02091122211654203</v>
+        <v>0.02116352841101935</v>
       </c>
     </row>
     <row r="7">
@@ -2600,19 +2600,19 @@
         <v>951789</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>938634</v>
+        <v>940100</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>958989</v>
+        <v>960035</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9765516357593025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9630538993973623</v>
+        <v>0.9645586161587416</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9839383253948694</v>
+        <v>0.9850116806184097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1208</v>
@@ -2621,19 +2621,19 @@
         <v>1294059</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1278122</v>
+        <v>1278574</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1306339</v>
+        <v>1305786</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9673057399037356</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9553929635571897</v>
+        <v>0.9557305907453285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9764850561841546</v>
+        <v>0.9760718860431383</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2094</v>
@@ -2642,19 +2642,19 @@
         <v>2245848</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2226637</v>
+        <v>2225710</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2260908</v>
+        <v>2261061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9712026840399202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9628952237932134</v>
+        <v>0.9624942706512793</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9777153376529796</v>
+        <v>0.9777813224839063</v>
       </c>
     </row>
     <row r="8">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8173</v>
+        <v>9482</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0006281267026636664</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.004163727407460431</v>
+        <v>0.004830557356048486</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5990</v>
+        <v>7249</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0006801597918626367</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.00340771315512671</v>
+        <v>0.00412365564169004</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8481</v>
+        <v>7773</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0006527086271995423</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002279476509507527</v>
+        <v>0.002089089576173172</v>
       </c>
     </row>
     <row r="10">
@@ -2817,19 +2817,19 @@
         <v>99039</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82357</v>
+        <v>80695</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121875</v>
+        <v>122316</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05045358077843377</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04195492471918144</v>
+        <v>0.04110873010948765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06208671476849871</v>
+        <v>0.06231127680862606</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -2838,19 +2838,19 @@
         <v>73986</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58736</v>
+        <v>58316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92175</v>
+        <v>93110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04209018480750138</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0334143607948436</v>
+        <v>0.03317569109430023</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05243747322123249</v>
+        <v>0.05296980420200367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -2859,19 +2859,19 @@
         <v>173025</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>148003</v>
+        <v>147084</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203224</v>
+        <v>199351</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04650247251663223</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03977731308557735</v>
+        <v>0.03953033808592125</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05461864263740625</v>
+        <v>0.05357766955867054</v>
       </c>
     </row>
     <row r="11">
@@ -2888,19 +2888,19 @@
         <v>79597</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62849</v>
+        <v>62311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102282</v>
+        <v>101324</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04054902279496663</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03201733268959009</v>
+        <v>0.0317433805663631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05210568528705886</v>
+        <v>0.05161755537077271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -2909,19 +2909,19 @@
         <v>59435</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44249</v>
+        <v>44216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77104</v>
+        <v>76597</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03381185925559225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02517264669993459</v>
+        <v>0.02515400617568602</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04386374961033038</v>
+        <v>0.04357565289526107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>118</v>
@@ -2930,19 +2930,19 @@
         <v>139031</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>114213</v>
+        <v>116973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>166538</v>
+        <v>167521</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03736619340197275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03069604641524691</v>
+        <v>0.03143767904754288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04475877309873543</v>
+        <v>0.04502314138756389</v>
       </c>
     </row>
     <row r="12">
@@ -2959,19 +2959,19 @@
         <v>1783107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1753955</v>
+        <v>1753516</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1806636</v>
+        <v>1807851</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9083692697239359</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8935183946987219</v>
+        <v>0.8932944464990343</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.920355403471721</v>
+        <v>0.9209744032821595</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1514</v>
@@ -2980,19 +2980,19 @@
         <v>1623187</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1596057</v>
+        <v>1600423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1644484</v>
+        <v>1646620</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9234177961450437</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9079838054770767</v>
+        <v>0.9104678273010479</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9355334712486375</v>
+        <v>0.9367488892082195</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3206</v>
@@ -3001,19 +3001,19 @@
         <v>3406294</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3364702</v>
+        <v>3368436</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3438076</v>
+        <v>3439279</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9154786254541954</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.904300488123852</v>
+        <v>0.9053040349640418</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9240203643716403</v>
+        <v>0.9243437934206273</v>
       </c>
     </row>
     <row r="13">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6517</v>
+        <v>8049</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002515960660560466</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01354356594964137</v>
+        <v>0.0167270115751546</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6047</v>
+        <v>6068</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0012881649639397</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006434367526110331</v>
+        <v>0.006457060498601634</v>
       </c>
     </row>
     <row r="15">
@@ -3168,19 +3168,19 @@
         <v>49959</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>36530</v>
+        <v>36998</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>65684</v>
+        <v>67108</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1038253144076297</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0759180117820384</v>
+        <v>0.07689048553923493</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1365065250890954</v>
+        <v>0.1394650767904938</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>47</v>
@@ -3189,19 +3189,19 @@
         <v>51777</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39363</v>
+        <v>38382</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68198</v>
+        <v>67511</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1128950324243983</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08582759156403126</v>
+        <v>0.08368876814747178</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1486981839899576</v>
+        <v>0.147201612639691</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>91</v>
@@ -3210,19 +3210,19 @@
         <v>101736</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>83603</v>
+        <v>81921</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>124454</v>
+        <v>126047</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.108251361652769</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08895657282761259</v>
+        <v>0.08716787192001306</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1324244523766628</v>
+        <v>0.1341189108841311</v>
       </c>
     </row>
     <row r="16">
@@ -3239,19 +3239,19 @@
         <v>65577</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50054</v>
+        <v>49981</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84266</v>
+        <v>85301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1362826812409985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1040234485348193</v>
+        <v>0.1038711367179489</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1751238666455147</v>
+        <v>0.1772747919569032</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -3260,19 +3260,19 @@
         <v>43044</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30350</v>
+        <v>30571</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57327</v>
+        <v>58901</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09385251450567415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06617435805770053</v>
+        <v>0.06665808965824772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1249955319683394</v>
+        <v>0.1284284037514237</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -3281,19 +3281,19 @@
         <v>108620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87459</v>
+        <v>87709</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132935</v>
+        <v>130949</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1155766436064801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09305965842639387</v>
+        <v>0.09332623030619566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1414479482681816</v>
+        <v>0.1393347310741434</v>
       </c>
     </row>
     <row r="17">
@@ -3310,19 +3310,19 @@
         <v>364435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>342488</v>
+        <v>342875</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>383810</v>
+        <v>385044</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7573760436908114</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.711765846327144</v>
+        <v>0.7125700426381165</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7976425826390839</v>
+        <v>0.8002057913512129</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>329</v>
@@ -3331,19 +3331,19 @@
         <v>363810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>344686</v>
+        <v>345397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>381803</v>
+        <v>381408</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7932524530699275</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.751553399184395</v>
+        <v>0.7531039450689686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8324850947005268</v>
+        <v>0.8316220503088376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>668</v>
@@ -3352,19 +3352,19 @@
         <v>728246</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>698406</v>
+        <v>699506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>754598</v>
+        <v>755739</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7748838297768113</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7431327319774166</v>
+        <v>0.7443035476316243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8029239129312363</v>
+        <v>0.8041371297813844</v>
       </c>
     </row>
     <row r="18">
@@ -3456,19 +3456,19 @@
         <v>3712</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11167</v>
+        <v>11220</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001085704124442048</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0003543728446496547</v>
+        <v>0.0003536512920893052</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.003266237944185838</v>
+        <v>0.003281875869067732</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6513</v>
+        <v>5964</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0003363841372127717</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.001832355725074727</v>
+        <v>0.001678060743277769</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3498,19 +3498,19 @@
         <v>4907</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11019</v>
+        <v>12245</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0007037675088752627</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0001764387772427064</v>
+        <v>0.0001753682763138203</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.001580241650673218</v>
+        <v>0.001756092168201871</v>
       </c>
     </row>
     <row r="20">
@@ -3527,19 +3527,19 @@
         <v>156767</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132551</v>
+        <v>131340</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184966</v>
+        <v>183835</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04585446637902808</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03877127311407854</v>
+        <v>0.03841684890559274</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05410257320977455</v>
+        <v>0.05377165837757771</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>138</v>
@@ -3548,19 +3548,19 @@
         <v>149481</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126661</v>
+        <v>126839</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>175078</v>
+        <v>177477</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04205731663083116</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03563679315112541</v>
+        <v>0.03568669100425517</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04925913412296375</v>
+        <v>0.04993396913982583</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>284</v>
@@ -3569,19 +3569,19 @@
         <v>306249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>265999</v>
+        <v>273016</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>341788</v>
+        <v>349198</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04391901750759306</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03814678913443252</v>
+        <v>0.03915315617955899</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0490156783969536</v>
+        <v>0.05007841443235323</v>
       </c>
     </row>
     <row r="21">
@@ -3598,19 +3598,19 @@
         <v>158990</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>132092</v>
+        <v>132411</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>188884</v>
+        <v>188291</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04650455004376718</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03863705193086989</v>
+        <v>0.03873015842646821</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05524849174962431</v>
+        <v>0.05507513571869963</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>104</v>
@@ -3619,19 +3619,19 @@
         <v>122499</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>99595</v>
+        <v>100449</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>148071</v>
+        <v>148251</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03446556255204499</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02802165408435903</v>
+        <v>0.02826189302976977</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04166055726848224</v>
+        <v>0.04171101413024442</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>239</v>
@@ -3640,19 +3640,19 @@
         <v>281488</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>248273</v>
+        <v>244583</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>319943</v>
+        <v>322076</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0403681460831021</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03560480457860325</v>
+        <v>0.03507549427673794</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04588298565771533</v>
+        <v>0.04618886786337915</v>
       </c>
     </row>
     <row r="22">
@@ -3669,19 +3669,19 @@
         <v>3099331</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3064397</v>
+        <v>3062155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3136788</v>
+        <v>3136496</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9065552794527627</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8963368819785777</v>
+        <v>0.895681235071065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9175114298461184</v>
+        <v>0.9174258632362025</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3051</v>
@@ -3690,19 +3690,19 @@
         <v>3281055</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3245602</v>
+        <v>3246920</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3311350</v>
+        <v>3312732</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.923140736679911</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9131660229630183</v>
+        <v>0.9135367193498887</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9316644835500295</v>
+        <v>0.9320534519287087</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5968</v>
@@ -3711,19 +3711,19 @@
         <v>6380387</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6334393</v>
+        <v>6326409</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6431587</v>
+        <v>6428772</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9150090689004295</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9084131069220241</v>
+        <v>0.9072681889463319</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9223517318024496</v>
+        <v>0.9219479337956602</v>
       </c>
     </row>
     <row r="23">
@@ -4101,19 +4101,19 @@
         <v>6356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13264</v>
+        <v>13236</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008439305714372018</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00303953178873304</v>
+        <v>0.003033923041967453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01761035136838712</v>
+        <v>0.0175737770681405</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -4122,19 +4122,19 @@
         <v>9758</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4395</v>
+        <v>4252</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21238</v>
+        <v>18724</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009849956582374388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004436387158166679</v>
+        <v>0.004291550880689678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02143684631366098</v>
+        <v>0.01889911125818193</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -4143,19 +4143,19 @@
         <v>16115</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9075</v>
+        <v>9572</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26767</v>
+        <v>27124</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009240702809307945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005203800591553659</v>
+        <v>0.005488911042196224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01534906712369608</v>
+        <v>0.01555401087467267</v>
       </c>
     </row>
     <row r="6">
@@ -4172,19 +4172,19 @@
         <v>9078</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4009</v>
+        <v>4819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15487</v>
+        <v>17438</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01205345668684254</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005322271043308834</v>
+        <v>0.006398729865359352</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02056182163427074</v>
+        <v>0.02315193727658983</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -4193,19 +4193,19 @@
         <v>10306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4982</v>
+        <v>4792</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18769</v>
+        <v>18496</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01040219945948015</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005029118662524438</v>
+        <v>0.004836934364139993</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01894515136192234</v>
+        <v>0.01866950143545692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -4214,19 +4214,19 @@
         <v>19384</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12068</v>
+        <v>11724</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31173</v>
+        <v>30241</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0111153700383197</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00692019221794979</v>
+        <v>0.006723084522026468</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01787541897682792</v>
+        <v>0.01734138675968317</v>
       </c>
     </row>
     <row r="7">
@@ -4243,19 +4243,19 @@
         <v>737744</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>729248</v>
+        <v>728501</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>744590</v>
+        <v>744275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9795072375987854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9682266850546787</v>
+        <v>0.9672345917252541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9885966043524618</v>
+        <v>0.9881786491949117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>872</v>
@@ -4264,19 +4264,19 @@
         <v>970648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>958947</v>
+        <v>959613</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>978979</v>
+        <v>978778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9797478439581454</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9679376334170063</v>
+        <v>0.9686098166408484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9881569290403898</v>
+        <v>0.9879540627787565</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1618</v>
@@ -4285,19 +4285,19 @@
         <v>1708392</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1693324</v>
+        <v>1692743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1718715</v>
+        <v>1718613</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9796439271523724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9710033337318735</v>
+        <v>0.9706703801960131</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.98556320205334</v>
+        <v>0.9855047997263082</v>
       </c>
     </row>
     <row r="8">
@@ -4389,19 +4389,19 @@
         <v>4330</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12621</v>
+        <v>12269</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002088039576693813</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0005072183772337927</v>
+        <v>0.0005104932073407203</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006086298797967178</v>
+        <v>0.005916734334875593</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -4410,19 +4410,19 @@
         <v>3144</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7977</v>
+        <v>8293</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001582950476104077</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0</v>
+        <v>0.0004274812334063485</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.004015660143577827</v>
+        <v>0.004174909937518156</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -4431,19 +4431,19 @@
         <v>7474</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2931</v>
+        <v>2815</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15792</v>
+        <v>15991</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001840916623370297</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0007218071453200045</v>
+        <v>0.0006932445351057589</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003889679854933363</v>
+        <v>0.003938555677417753</v>
       </c>
     </row>
     <row r="10">
@@ -4460,19 +4460,19 @@
         <v>57787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44050</v>
+        <v>43305</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73845</v>
+        <v>73741</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02786775967334403</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02124315777768256</v>
+        <v>0.02088401317136443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0356121221912782</v>
+        <v>0.03556177922359027</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -4481,19 +4481,19 @@
         <v>61996</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47300</v>
+        <v>47299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77693</v>
+        <v>79262</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0312097644758377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02381143836942214</v>
+        <v>0.02381106756310427</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03911146943325917</v>
+        <v>0.03990169067827736</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -4502,19 +4502,19 @@
         <v>119783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99843</v>
+        <v>98884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144516</v>
+        <v>142454</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02950288918979829</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02459149479398775</v>
+        <v>0.02435534252701216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03559463401149923</v>
+        <v>0.03508668659319204</v>
       </c>
     </row>
     <row r="11">
@@ -4531,19 +4531,19 @@
         <v>70480</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55183</v>
+        <v>54449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>89687</v>
+        <v>87919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03398901577357005</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02661218999648516</v>
+        <v>0.02625805859163648</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04325179609654041</v>
+        <v>0.04239902537916262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -4552,19 +4552,19 @@
         <v>48786</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36475</v>
+        <v>36558</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66240</v>
+        <v>64945</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02455957493397832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01836217651525865</v>
+        <v>0.01840354062820166</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03334595108811565</v>
+        <v>0.03269403005426926</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -4573,19 +4573,19 @@
         <v>119266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>98414</v>
+        <v>97537</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>143498</v>
+        <v>142813</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02937551042223989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02423951907691984</v>
+        <v>0.02402358595776538</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03534387760139798</v>
+        <v>0.03517510305656181</v>
       </c>
     </row>
     <row r="12">
@@ -4602,19 +4602,19 @@
         <v>1941008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1914696</v>
+        <v>1917944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1961519</v>
+        <v>1963745</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9360551849763921</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9233662372724775</v>
+        <v>0.9249326206140804</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9459469411962593</v>
+        <v>0.9470204529785824</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1801</v>
@@ -4623,19 +4623,19 @@
         <v>1872516</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1851285</v>
+        <v>1849268</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1892974</v>
+        <v>1891659</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9426477101140799</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9319595539965002</v>
+        <v>0.9309446061565196</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9529464401169496</v>
+        <v>0.9522847769789101</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3631</v>
@@ -4644,19 +4644,19 @@
         <v>3813524</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3779354</v>
+        <v>3784835</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3844448</v>
+        <v>3844033</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9392806837645915</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9308646645716193</v>
+        <v>0.9322146611915106</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9468974131846041</v>
+        <v>0.9467951627006606</v>
       </c>
     </row>
     <row r="13">
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8581</v>
+        <v>7368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004465150881268171</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01571742361882693</v>
+        <v>0.01349651803644351</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7439</v>
+        <v>7386</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002226015363944678</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006792967626169306</v>
+        <v>0.00674460801730574</v>
       </c>
     </row>
     <row r="15">
@@ -4811,19 +4811,19 @@
         <v>57156</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>43856</v>
+        <v>43173</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>71735</v>
+        <v>72521</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1046968577703789</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0803345276519702</v>
+        <v>0.07908233189879224</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1314013235155205</v>
+        <v>0.1328408546065707</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>71</v>
@@ -4832,19 +4832,19 @@
         <v>78846</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>63938</v>
+        <v>63663</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96170</v>
+        <v>96993</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1435810936712645</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1164324775846819</v>
+        <v>0.1159321397405968</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1751281461006778</v>
+        <v>0.1766267933289334</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>124</v>
@@ -4853,19 +4853,19 @@
         <v>136003</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>115204</v>
+        <v>114028</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>161906</v>
+        <v>159051</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.124196103369204</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1052026760514863</v>
+        <v>0.1041295025299337</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1478510068100944</v>
+        <v>0.1452437639540043</v>
       </c>
     </row>
     <row r="16">
@@ -4882,19 +4882,19 @@
         <v>76787</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60728</v>
+        <v>61198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94880</v>
+        <v>96299</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1406557931885007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1112389538647416</v>
+        <v>0.1121008065223742</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1737982258035674</v>
+        <v>0.1763969687742974</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -4903,19 +4903,19 @@
         <v>62093</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48492</v>
+        <v>49027</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79356</v>
+        <v>78408</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1130729499452771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08830616080500403</v>
+        <v>0.08927906571227047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1445090509795026</v>
+        <v>0.1427831442875699</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>129</v>
@@ -4924,19 +4924,19 @@
         <v>138880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117782</v>
+        <v>116687</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>164790</v>
+        <v>163458</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1268238476133207</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1075574008759808</v>
+        <v>0.1065575872150029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1504842500321628</v>
+        <v>0.1492683770011255</v>
       </c>
     </row>
     <row r="17">
@@ -4953,19 +4953,19 @@
         <v>409542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>386636</v>
+        <v>387791</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>430750</v>
+        <v>430199</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7501821981598522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.708225064716629</v>
+        <v>0.7103397153733499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7890310480094317</v>
+        <v>0.7880217655076309</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -4974,19 +4974,19 @@
         <v>408201</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>386733</v>
+        <v>384743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>428189</v>
+        <v>427367</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7433459563834585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7042514969641477</v>
+        <v>0.700627943030493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.779745236885222</v>
+        <v>0.7782479737469685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>771</v>
@@ -4995,19 +4995,19 @@
         <v>817743</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>786406</v>
+        <v>789985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>845034</v>
+        <v>846714</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7467540336535307</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7181375019710132</v>
+        <v>0.7214060906341949</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7716758665620554</v>
+        <v>0.7732103796631493</v>
       </c>
     </row>
     <row r="18">
@@ -5099,19 +5099,19 @@
         <v>6767</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16746</v>
+        <v>16239</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002006518187280013</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00072131424687199</v>
+        <v>0.0007224924612552414</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.004965045365288674</v>
+        <v>0.004814690413488672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5120,19 +5120,19 @@
         <v>3144</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8500</v>
+        <v>9808</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0008917122724666764</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0002405513345809594</v>
+        <v>0.000240706659312812</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.002410601196897665</v>
+        <v>0.00278137481271696</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -5141,19 +5141,19 @@
         <v>9912</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4566</v>
+        <v>4237</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19261</v>
+        <v>17879</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001436705914249683</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0006617963728420535</v>
+        <v>0.0006141428872763451</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00279181481890219</v>
+        <v>0.00259156527836766</v>
       </c>
     </row>
     <row r="20">
@@ -5170,19 +5170,19 @@
         <v>121299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100801</v>
+        <v>101331</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>144797</v>
+        <v>144999</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03596501517327158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02988716842447693</v>
+        <v>0.03004446116251349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04293206009727149</v>
+        <v>0.04299193170089458</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -5191,19 +5191,19 @@
         <v>150601</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126332</v>
+        <v>126004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>174454</v>
+        <v>176328</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04270801005075749</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03582559436117172</v>
+        <v>0.03573269097733488</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0494722557169064</v>
+        <v>0.05000363965923928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>248</v>
@@ -5212,19 +5212,19 @@
         <v>271900</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>238732</v>
+        <v>237763</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>309130</v>
+        <v>306757</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03941157137387755</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03460380730235233</v>
+        <v>0.03446341148946042</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04480797470639878</v>
+        <v>0.04446404082114885</v>
       </c>
     </row>
     <row r="21">
@@ -5241,19 +5241,19 @@
         <v>156345</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>131460</v>
+        <v>132038</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>183152</v>
+        <v>183912</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04635606918174369</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03897763265397141</v>
+        <v>0.03914901389776342</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05430417889353877</v>
+        <v>0.05452952938770115</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>113</v>
@@ -5262,19 +5262,19 @@
         <v>121185</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>98882</v>
+        <v>98671</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>142402</v>
+        <v>144790</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03436600865319937</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02804141249898572</v>
+        <v>0.02798158931518311</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04038275473947804</v>
+        <v>0.04106004531907594</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>256</v>
@@ -5283,19 +5283,19 @@
         <v>277530</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>246519</v>
+        <v>242721</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>312592</v>
+        <v>313778</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04022757313345617</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03573263277708456</v>
+        <v>0.03518209913751987</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04530981056214523</v>
+        <v>0.04548163160173768</v>
       </c>
     </row>
     <row r="22">
@@ -5312,19 +5312,19 @@
         <v>3088293</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3054980</v>
+        <v>3054057</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3121500</v>
+        <v>3120448</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9156723974577047</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9057951434490674</v>
+        <v>0.9055214672385561</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9255183118501128</v>
+        <v>0.9252063006697079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3068</v>
@@ -5333,19 +5333,19 @@
         <v>3251366</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3215758</v>
+        <v>3217045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3280967</v>
+        <v>3283181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9220342690235764</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9119365341986925</v>
+        <v>0.9123014623552688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.930428661922775</v>
+        <v>0.9310564534355223</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6020</v>
@@ -5354,19 +5354,19 @@
         <v>6339659</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6290311</v>
+        <v>6293872</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6385283</v>
+        <v>6392013</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9189241495784166</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9117712320855644</v>
+        <v>0.9122873751798002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9255373630717715</v>
+        <v>0.9265128572641126</v>
       </c>
     </row>
     <row r="23">
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6017</v>
+        <v>6282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00337381935736297</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01040007331787879</v>
+        <v>0.01085934793188686</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4772</v>
+        <v>4557</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001588200723734618</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00581076609222653</v>
+        <v>0.005547919358669697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -5739,19 +5739,19 @@
         <v>3256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8543</v>
+        <v>8164</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.002326163307134063</v>
+        <v>0.002326163307134062</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006415414884930081</v>
+        <v>0.0006411169414998681</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006102942098950077</v>
+        <v>0.005831848552233932</v>
       </c>
     </row>
     <row r="5">
@@ -5768,19 +5768,19 @@
         <v>9663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4770</v>
+        <v>5390</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16798</v>
+        <v>16753</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01670356707235364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008244888651918733</v>
+        <v>0.009317080841920799</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02903647561260502</v>
+        <v>0.02895733425851521</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5789,19 +5789,19 @@
         <v>14763</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9754</v>
+        <v>9195</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21673</v>
+        <v>21878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01797517408729799</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01187614344551315</v>
+        <v>0.01119527501166495</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0263879957982722</v>
+        <v>0.02663813030004204</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -5810,19 +5810,19 @@
         <v>24427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17153</v>
+        <v>17084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33414</v>
+        <v>33734</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01744964283435045</v>
+        <v>0.01744964283435044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01225318743846322</v>
+        <v>0.01220433888276803</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02386964379333705</v>
+        <v>0.02409806230095252</v>
       </c>
     </row>
     <row r="6">
@@ -5839,19 +5839,19 @@
         <v>3299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>741</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8078</v>
+        <v>8649</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.005702794978069463</v>
+        <v>0.005702794978069462</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001280559592170716</v>
+        <v>0.001731531521361403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01396363551554483</v>
+        <v>0.01495022937317015</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5860,19 +5860,19 @@
         <v>6460</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3324</v>
+        <v>3345</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11453</v>
+        <v>11567</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007865331835540123</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00404684803182744</v>
+        <v>0.004072960491386193</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01394511803203713</v>
+        <v>0.01408401142521323</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -5881,19 +5881,19 @@
         <v>9759</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5664</v>
+        <v>5728</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16664</v>
+        <v>16816</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006971596042252181</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004046311860042725</v>
+        <v>0.004091603020836148</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0119040709117789</v>
+        <v>0.01201282512424849</v>
       </c>
     </row>
     <row r="7">
@@ -5910,19 +5910,19 @@
         <v>563614</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>554883</v>
+        <v>554423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>569182</v>
+        <v>569161</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9742198185922141</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9591272061044342</v>
+        <v>0.9583317969899677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9838435774481332</v>
+        <v>0.9838069350892904</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1389</v>
@@ -5931,19 +5931,19 @@
         <v>798787</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>790018</v>
+        <v>790349</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>805197</v>
+        <v>805367</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9725712933534273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9618941874684213</v>
+        <v>0.9622974144259885</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.980375378926339</v>
+        <v>0.9805828778695354</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2062</v>
@@ -5952,19 +5952,19 @@
         <v>1362403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1350894</v>
+        <v>1351288</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1371658</v>
+        <v>1372214</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9732525978162634</v>
+        <v>0.9732525978162632</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9650308759599117</v>
+        <v>0.9653125128580017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9798643594228397</v>
+        <v>0.980261508356838</v>
       </c>
     </row>
     <row r="8">
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9955</v>
+        <v>11716</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001329526380290735</v>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.004462910485033024</v>
+        <v>0.005252498586605557</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -6077,19 +6077,19 @@
         <v>5355</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11541</v>
+        <v>12687</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002467550155169934</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0009759595003415965</v>
+        <v>0.0009744062761809318</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.005317760473162156</v>
+        <v>0.005845666824291868</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -6098,19 +6098,19 @@
         <v>8321</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3919</v>
+        <v>4097</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16742</v>
+        <v>17854</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.001890749522058223</v>
+        <v>0.001890749522058224</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0008905688988945628</v>
+        <v>0.0009308809165974967</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003804250272372038</v>
+        <v>0.004056916961207171</v>
       </c>
     </row>
     <row r="10">
@@ -6127,19 +6127,19 @@
         <v>172325</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146224</v>
+        <v>145896</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202157</v>
+        <v>203831</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07725613820424945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06555472685730947</v>
+        <v>0.06540780226658162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09063054141881358</v>
+        <v>0.0913809120052934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>248</v>
@@ -6148,19 +6148,19 @@
         <v>180269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158817</v>
+        <v>159653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>206000</v>
+        <v>207270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08306069469306235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07317668644006002</v>
+        <v>0.07356164103436955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09491664220823565</v>
+        <v>0.09550174075484325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>397</v>
@@ -6169,19 +6169,19 @@
         <v>352594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>317540</v>
+        <v>319681</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>393117</v>
+        <v>394363</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08011868949810465</v>
+        <v>0.08011868949810466</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07215355401235653</v>
+        <v>0.07263993362031791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08932662523248583</v>
+        <v>0.08960975348232388</v>
       </c>
     </row>
     <row r="11">
@@ -6198,19 +6198,19 @@
         <v>70918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54021</v>
+        <v>54774</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>92688</v>
+        <v>95203</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03179388315666126</v>
+        <v>0.03179388315666125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02421841823604202</v>
+        <v>0.0245560159030751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04155349956477911</v>
+        <v>0.04268093049263307</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -6219,19 +6219,19 @@
         <v>36427</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26704</v>
+        <v>27154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46595</v>
+        <v>47754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01678393225072416</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01230395101357274</v>
+        <v>0.01251132495473581</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02146907726605795</v>
+        <v>0.02200313911632973</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>114</v>
@@ -6240,19 +6240,19 @@
         <v>107345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89101</v>
+        <v>88589</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>131696</v>
+        <v>133072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02439163727115681</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02024619821604333</v>
+        <v>0.02012986831864251</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02992473312396214</v>
+        <v>0.03023756857728009</v>
       </c>
     </row>
     <row r="12">
@@ -6269,19 +6269,19 @@
         <v>1984357</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1945384</v>
+        <v>1949140</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2018370</v>
+        <v>2018524</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8896204522587986</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8721482778367418</v>
+        <v>0.8738321911553408</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9048688532313058</v>
+        <v>0.9049378106730481</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2609</v>
@@ -6290,19 +6290,19 @@
         <v>1948275</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1922642</v>
+        <v>1918877</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1972048</v>
+        <v>1970681</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8976878229010435</v>
+        <v>0.8976878229010437</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8858772274653186</v>
+        <v>0.884142065981021</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9086411631249008</v>
+        <v>0.9080114121987689</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4392</v>
@@ -6311,19 +6311,19 @@
         <v>3932632</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3890523</v>
+        <v>3886389</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3975065</v>
+        <v>3973237</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8935989237086801</v>
+        <v>0.8935989237086804</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.884030582605474</v>
+        <v>0.8830912180928111</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9032407145360364</v>
+        <v>0.9028252863386333</v>
       </c>
     </row>
     <row r="13">
@@ -6462,19 +6462,19 @@
         <v>162589</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>140781</v>
+        <v>137878</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>190110</v>
+        <v>186591</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2284881992392011</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1978409835271198</v>
+        <v>0.1937609733900517</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2671640763514362</v>
+        <v>0.26221862077466</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>266</v>
@@ -6483,19 +6483,19 @@
         <v>193533</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>171490</v>
+        <v>172767</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>214862</v>
+        <v>215002</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2633543229567675</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2333587334969678</v>
+        <v>0.2350970841875091</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2923778463994879</v>
+        <v>0.2925693141566284</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>423</v>
@@ -6504,19 +6504,19 @@
         <v>356122</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>326434</v>
+        <v>326516</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>390887</v>
+        <v>389596</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2462019595999299</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2256770743382656</v>
+        <v>0.2257339445620316</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2702365457774031</v>
+        <v>0.2693440379114392</v>
       </c>
     </row>
     <row r="16">
@@ -6533,19 +6533,19 @@
         <v>55434</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42231</v>
+        <v>41581</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73379</v>
+        <v>73253</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07790151461852107</v>
+        <v>0.07790151461852106</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0593471131322138</v>
+        <v>0.05843439858451779</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1031200024794486</v>
+        <v>0.1029433344845074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -6554,19 +6554,19 @@
         <v>59767</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48109</v>
+        <v>48433</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76062</v>
+        <v>73930</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08132890693570535</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.065465978484487</v>
+        <v>0.06590653772927559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.103502560115436</v>
+        <v>0.1006024973683627</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>151</v>
@@ -6575,19 +6575,19 @@
         <v>115200</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97194</v>
+        <v>97245</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137416</v>
+        <v>136143</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07964280386135759</v>
+        <v>0.07964280386135758</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06719433727806277</v>
+        <v>0.06722970577566288</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09500114881439983</v>
+        <v>0.09412116790643488</v>
       </c>
     </row>
     <row r="17">
@@ -6604,19 +6604,19 @@
         <v>493564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>465520</v>
+        <v>463692</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>517751</v>
+        <v>520630</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6936102861422778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6541994574090021</v>
+        <v>0.6516314195267647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7276008312959952</v>
+        <v>0.7316467394646886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>650</v>
@@ -6625,19 +6625,19 @@
         <v>481577</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>457954</v>
+        <v>459559</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>506356</v>
+        <v>506463</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6553167701075271</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6231711837051079</v>
+        <v>0.6253548821125839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6890353173438897</v>
+        <v>0.6891803486409166</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1111</v>
@@ -6646,19 +6646,19 @@
         <v>975141</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>939052</v>
+        <v>936797</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1008137</v>
+        <v>1006206</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6741552365387127</v>
+        <v>0.6741552365387126</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6492051108602906</v>
+        <v>0.6476465690596848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6969668110205834</v>
+        <v>0.6956313238164267</v>
       </c>
     </row>
     <row r="18">
@@ -6750,19 +6750,19 @@
         <v>4917</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1081</v>
+        <v>1154</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12657</v>
+        <v>12131</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.001396732059493743</v>
+        <v>0.001396732059493744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.000307157604278303</v>
+        <v>0.0003277872131551736</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.003594967226142251</v>
+        <v>0.003445543604185175</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -6771,19 +6771,19 @@
         <v>6660</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3249</v>
+        <v>3272</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12101</v>
+        <v>12321</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001787137705895739</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0008718777945289228</v>
+        <v>0.0008779386148117552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.00324735622052758</v>
+        <v>0.003306193198326578</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -6792,19 +6792,19 @@
         <v>11577</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6213</v>
+        <v>5968</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20218</v>
+        <v>20290</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001597479051872104</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0008573429986538438</v>
+        <v>0.0008235175237498717</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002789828657459506</v>
+        <v>0.002799753509054337</v>
       </c>
     </row>
     <row r="20">
@@ -6821,19 +6821,19 @@
         <v>344578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>305245</v>
+        <v>308321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>383089</v>
+        <v>388093</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09787240372023426</v>
+        <v>0.09787240372023427</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08670052620068865</v>
+        <v>0.08757421843914087</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1088109680939214</v>
+        <v>0.1102324432980156</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>538</v>
@@ -6842,19 +6842,19 @@
         <v>388565</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>358508</v>
+        <v>356635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>423341</v>
+        <v>427039</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.104270295514143</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0962046091904408</v>
+        <v>0.09570203984127823</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1136022829724576</v>
+        <v>0.1145946751503252</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>856</v>
@@ -6863,19 +6863,19 @@
         <v>733143</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>683861</v>
+        <v>685550</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>786325</v>
+        <v>785673</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1011622063832493</v>
+        <v>0.1011622063832492</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09436206938920103</v>
+        <v>0.09459518734341849</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1085005744914264</v>
+        <v>0.1084106029366144</v>
       </c>
     </row>
     <row r="21">
@@ -6892,19 +6892,19 @@
         <v>129651</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>105923</v>
+        <v>108473</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>157958</v>
+        <v>158559</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03682561481028959</v>
+        <v>0.0368256148102896</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03008597688124968</v>
+        <v>0.03081033785704889</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04486558496093004</v>
+        <v>0.04503631639512033</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>155</v>
@@ -6913,19 +6913,19 @@
         <v>102653</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>88316</v>
+        <v>87662</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>121919</v>
+        <v>122728</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02754670041663265</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02369940987266973</v>
+        <v>0.02352376304119754</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03271662691311968</v>
+        <v>0.03293374171717539</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>280</v>
@@ -6934,19 +6934,19 @@
         <v>232305</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>204864</v>
+        <v>205135</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>265560</v>
+        <v>262786</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.03205438730825471</v>
+        <v>0.0320543873082547</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02826798853639619</v>
+        <v>0.02830538665602858</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03664313477084531</v>
+        <v>0.03626031160140423</v>
       </c>
     </row>
     <row r="22">
@@ -6963,19 +6963,19 @@
         <v>3041537</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2997229</v>
+        <v>2989638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3087271</v>
+        <v>3084472</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8639052494099823</v>
+        <v>0.8639052494099824</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8513204349893434</v>
+        <v>0.8491640811499386</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8768955596006436</v>
+        <v>0.8761003771676488</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4648</v>
@@ -6984,19 +6984,19 @@
         <v>3228641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3189104</v>
+        <v>3188639</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3262929</v>
+        <v>3264236</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8663958663633285</v>
+        <v>0.8663958663633287</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.855786223326876</v>
+        <v>0.8556614653112002</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8755971447877866</v>
+        <v>0.8759477084816387</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7565</v>
@@ -7005,19 +7005,19 @@
         <v>6270176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6202012</v>
+        <v>6206386</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6324683</v>
+        <v>6321683</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.865185927256624</v>
+        <v>0.8651859272566239</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8557803191375987</v>
+        <v>0.8563838477400051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8727070257357482</v>
+        <v>0.8722929881821583</v>
       </c>
     </row>
     <row r="23">
